--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value700.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value700.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1388024718403385</v>
+        <v>0.9965318441390991</v>
       </c>
       <c r="B1">
-        <v>0.09403096588677758</v>
+        <v>1.260233640670776</v>
       </c>
       <c r="C1">
-        <v>0.07476449096240684</v>
+        <v>1.828446507453918</v>
       </c>
       <c r="D1">
-        <v>0.07388820214789124</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.08148369424460443</v>
+        <v>2.130897998809814</v>
       </c>
     </row>
   </sheetData>
